--- a/migforecasting/API/Recommsys (API)/medians 01.xlsx
+++ b/migforecasting/API/Recommsys (API)/medians 01.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>saldo</t>
   </si>
@@ -70,13 +70,37 @@
   </si>
   <si>
     <t>clust</t>
+  </si>
+  <si>
+    <t>migprop</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>гибрид (лучший)</t>
+  </si>
+  <si>
+    <t>сельхоз (посев)</t>
+  </si>
+  <si>
+    <t>гибрид (средний)</t>
+  </si>
+  <si>
+    <t>сельхоз (скот)</t>
+  </si>
+  <si>
+    <t>сельхоз (худший)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +113,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,16 +152,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,15 +486,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +550,14 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>-131.99999999999989</v>
       </c>
@@ -548,8 +609,15 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
+      <c r="R2" s="5">
+        <f>A2/B2</f>
+        <v>-6.2611170401992156E-3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>-136.49999999999989</v>
       </c>
@@ -601,8 +669,15 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R7" si="0">A3/B3</f>
+        <v>-3.6556461655887166E-3</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>-123.9999999999999</v>
       </c>
@@ -654,8 +729,15 @@
       <c r="Q4" s="2">
         <v>2</v>
       </c>
+      <c r="R4" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.6547983966045724E-3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>-118</v>
       </c>
@@ -707,8 +789,15 @@
       <c r="Q5" s="2">
         <v>3</v>
       </c>
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.6501546767551381E-3</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>-172.99999999999989</v>
       </c>
@@ -760,8 +849,15 @@
       <c r="Q6" s="2">
         <v>4</v>
       </c>
+      <c r="R6" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.6768169088180211E-3</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>-80.999999999999972</v>
       </c>
@@ -812,10 +908,149 @@
       </c>
       <c r="Q7" s="2">
         <v>5</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.6407050625128076E-3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -827,7 +1062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
+  <conditionalFormatting sqref="N2:N7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -839,7 +1074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="O2:O7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -851,7 +1086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
+  <conditionalFormatting sqref="P2:P7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -863,7 +1098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="R2:R7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -876,5 +1111,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>